--- a/Lenzerheide (SUI)_Women 7.5km Sprint_2023-2024.xlsx
+++ b/Lenzerheide (SUI)_Women 7.5km Sprint_2023-2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="130">
   <si>
     <t>Ranking</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>7.0km (PT)</t>
+  </si>
+  <si>
+    <t>Finish</t>
   </si>
   <si>
     <t>COMOLA S.</t>
@@ -758,13 +761,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W82"/>
+  <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,8 +837,11 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>55</v>
       </c>
@@ -843,10 +849,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E2">
         <v>102.4</v>
@@ -905,19 +911,22 @@
       <c r="W2">
         <v>1472.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>1530.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>112.4</v>
@@ -976,19 +985,22 @@
       <c r="W3">
         <v>1439.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>1492.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E4">
         <v>104.4</v>
@@ -1047,19 +1059,22 @@
       <c r="W4">
         <v>1453.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4">
+        <v>1508.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E5">
         <v>98.89999999999999</v>
@@ -1118,19 +1133,22 @@
       <c r="W5">
         <v>1389.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5">
+        <v>1438.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6">
         <v>105.1</v>
@@ -1189,19 +1207,22 @@
       <c r="W6">
         <v>1378.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6">
+        <v>1435.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E7">
         <v>107.5</v>
@@ -1260,19 +1281,22 @@
       <c r="W7">
         <v>1478.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7">
+        <v>1531.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E8">
         <v>106.8</v>
@@ -1331,19 +1355,22 @@
       <c r="W8">
         <v>1403.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8">
+        <v>1458.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E9">
         <v>104.4</v>
@@ -1402,19 +1429,22 @@
       <c r="W9">
         <v>1419.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9">
+        <v>1470.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E10">
         <v>100.3</v>
@@ -1473,19 +1503,22 @@
       <c r="W10">
         <v>1450.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10">
+        <v>1509.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E11">
         <v>113</v>
@@ -1544,19 +1577,22 @@
       <c r="W11">
         <v>1474</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11">
+        <v>1542.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E12">
         <v>112.1</v>
@@ -1615,19 +1651,22 @@
       <c r="W12">
         <v>1455</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12">
+        <v>1509.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E13">
         <v>103.7</v>
@@ -1686,8 +1725,11 @@
       <c r="W13">
         <v>1402.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13">
+        <v>1460.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1695,10 +1737,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E14">
         <v>101.3</v>
@@ -1757,8 +1799,11 @@
       <c r="W14">
         <v>1335.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14">
+        <v>1388.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>33</v>
       </c>
@@ -1766,10 +1811,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E15">
         <v>100.3</v>
@@ -1828,8 +1873,11 @@
       <c r="W15">
         <v>1427.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15">
+        <v>1481.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>47</v>
       </c>
@@ -1837,10 +1885,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E16">
         <v>101.4</v>
@@ -1899,19 +1947,22 @@
       <c r="W16">
         <v>1457.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16">
+        <v>1512.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E17">
         <v>101.4</v>
@@ -1970,8 +2021,11 @@
       <c r="W17">
         <v>1483.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18">
         <v>7</v>
       </c>
@@ -1979,10 +2033,10 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E18">
         <v>104.6</v>
@@ -2041,8 +2095,11 @@
       <c r="W18">
         <v>1342</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18">
+        <v>1392.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19">
         <v>34</v>
       </c>
@@ -2050,10 +2107,10 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E19">
         <v>104.6</v>
@@ -2112,19 +2169,22 @@
       <c r="W19">
         <v>1431.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20">
         <v>103.1</v>
@@ -2183,19 +2243,22 @@
       <c r="W20">
         <v>1387.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E21">
         <v>104.4</v>
@@ -2254,8 +2317,11 @@
       <c r="W21">
         <v>1450.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21">
+        <v>1504.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2263,10 +2329,10 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E22">
         <v>99.5</v>
@@ -2325,19 +2391,22 @@
       <c r="W22">
         <v>1281</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E23">
         <v>108.8</v>
@@ -2396,19 +2465,22 @@
       <c r="W23">
         <v>1432.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23">
+        <v>1486.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24">
         <v>102.5</v>
@@ -2467,19 +2539,22 @@
       <c r="W24">
         <v>1465.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24">
+        <v>1525.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E25">
         <v>102.9</v>
@@ -2538,8 +2613,11 @@
       <c r="W25">
         <v>1366.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25">
+        <v>1419.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26">
         <v>18</v>
       </c>
@@ -2547,10 +2625,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E26">
         <v>98.39999999999999</v>
@@ -2609,8 +2687,11 @@
       <c r="W26">
         <v>1385.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26">
+        <v>1437.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27">
         <v>12</v>
       </c>
@@ -2618,10 +2699,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E27">
         <v>108.3</v>
@@ -2680,19 +2761,22 @@
       <c r="W27">
         <v>1369.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27">
+        <v>1422.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E28">
         <v>103.4</v>
@@ -2751,8 +2835,11 @@
       <c r="W28">
         <v>1366.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28">
+        <v>1420.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2760,10 +2847,10 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E29">
         <v>102.1</v>
@@ -2822,8 +2909,11 @@
       <c r="W29">
         <v>1300.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29">
+        <v>1350.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30">
         <v>37</v>
       </c>
@@ -2831,10 +2921,10 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E30">
         <v>106.5</v>
@@ -2893,8 +2983,11 @@
       <c r="W30">
         <v>1435</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30">
+        <v>1488.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31">
         <v>68</v>
       </c>
@@ -2902,10 +2995,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E31">
         <v>105</v>
@@ -2964,19 +3057,22 @@
       <c r="W31">
         <v>1504.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31">
+        <v>1559.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -3035,8 +3131,11 @@
       <c r="W32">
         <v>1416.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32">
+        <v>1467.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33">
         <v>51</v>
       </c>
@@ -3044,10 +3143,10 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E33">
         <v>103.3</v>
@@ -3106,8 +3205,11 @@
       <c r="W33">
         <v>1463.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33">
+        <v>1518.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34">
         <v>21</v>
       </c>
@@ -3115,10 +3217,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E34">
         <v>102.6</v>
@@ -3177,19 +3279,22 @@
       <c r="W34">
         <v>1397.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34">
+        <v>1449.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E35">
         <v>101.7</v>
@@ -3248,19 +3353,22 @@
       <c r="W35">
         <v>1402.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35">
+        <v>1457.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36">
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E36">
         <v>101</v>
@@ -3319,8 +3427,11 @@
       <c r="W36">
         <v>1379.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36">
+        <v>1430.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3328,10 +3439,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E37">
         <v>99.09999999999999</v>
@@ -3390,19 +3501,22 @@
       <c r="W37">
         <v>1294.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37">
+        <v>1345.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38">
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E38">
         <v>110</v>
@@ -3461,8 +3575,11 @@
       <c r="W38">
         <v>1493</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3470,10 +3587,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E39">
         <v>99.89999999999999</v>
@@ -3532,8 +3649,11 @@
       <c r="W39">
         <v>1320.9</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39">
+        <v>1372.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40">
         <v>28</v>
       </c>
@@ -3541,10 +3661,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E40">
         <v>110.9</v>
@@ -3603,8 +3723,11 @@
       <c r="W40">
         <v>1410.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40">
+        <v>1461.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41">
         <v>32</v>
       </c>
@@ -3612,10 +3735,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E41">
         <v>108</v>
@@ -3674,8 +3797,11 @@
       <c r="W41">
         <v>1420.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41">
+        <v>1475.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42">
         <v>5</v>
       </c>
@@ -3683,10 +3809,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E42">
         <v>96.59999999999999</v>
@@ -3745,8 +3871,11 @@
       <c r="W42">
         <v>1335.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43">
         <v>8</v>
       </c>
@@ -3754,10 +3883,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E43">
         <v>103</v>
@@ -3816,19 +3945,22 @@
       <c r="W43">
         <v>1354</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43">
+        <v>1405.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E44">
         <v>111.7</v>
@@ -3887,19 +4019,22 @@
       <c r="W44">
         <v>1488.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44">
+        <v>1542.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B45">
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E45">
         <v>114.1</v>
@@ -3958,8 +4093,11 @@
       <c r="W45">
         <v>1518.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45">
+        <v>1582.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46">
         <v>9</v>
       </c>
@@ -3967,10 +4105,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E46">
         <v>107.7</v>
@@ -4029,19 +4167,22 @@
       <c r="W46">
         <v>1360.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46">
+        <v>1416.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B47">
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E47">
         <v>103.6</v>
@@ -4100,8 +4241,11 @@
       <c r="W47">
         <v>1474.3</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47">
+        <v>1534.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48">
         <v>17</v>
       </c>
@@ -4109,10 +4253,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E48">
         <v>102.5</v>
@@ -4171,8 +4315,11 @@
       <c r="W48">
         <v>1379.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48">
+        <v>1436.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49">
         <v>80</v>
       </c>
@@ -4180,10 +4327,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E49">
         <v>118.9</v>
@@ -4242,19 +4389,22 @@
       <c r="W49">
         <v>1591.7</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49">
+        <v>1647.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50">
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E50">
         <v>101.2</v>
@@ -4313,19 +4463,22 @@
       <c r="W50">
         <v>1478.8</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50">
+        <v>1533.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51">
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E51">
         <v>108.2</v>
@@ -4384,8 +4537,11 @@
       <c r="W51">
         <v>1554.4</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51">
+        <v>1610.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52">
         <v>67</v>
       </c>
@@ -4393,10 +4549,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E52">
         <v>108.2</v>
@@ -4455,8 +4611,11 @@
       <c r="W52">
         <v>1503.3</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53">
         <v>77</v>
       </c>
@@ -4464,10 +4623,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E53">
         <v>109.8</v>
@@ -4526,19 +4685,22 @@
       <c r="W53">
         <v>1563.9</v>
       </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B54">
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E54">
         <v>109.7</v>
@@ -4597,19 +4759,22 @@
       <c r="W54">
         <v>1436.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54">
+        <v>1494.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E55">
         <v>104</v>
@@ -4668,8 +4833,11 @@
       <c r="W55">
         <v>1485.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55">
+        <v>1540.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56">
         <v>13</v>
       </c>
@@ -4677,10 +4845,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E56">
         <v>103.2</v>
@@ -4739,19 +4907,22 @@
       <c r="W56">
         <v>1371.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57">
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E57">
         <v>105.2</v>
@@ -4810,19 +4981,22 @@
       <c r="W57">
         <v>1458.1</v>
       </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57">
+        <v>1512.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B58">
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E58">
         <v>98.69999999999999</v>
@@ -4881,19 +5055,22 @@
       <c r="W58">
         <v>1397.7</v>
       </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B59">
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E59">
         <v>105.6</v>
@@ -4952,8 +5129,11 @@
       <c r="W59">
         <v>1441.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59">
+        <v>1500.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60">
         <v>14</v>
       </c>
@@ -4961,10 +5141,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E60">
         <v>95.09999999999999</v>
@@ -5023,8 +5203,11 @@
       <c r="W60">
         <v>1374.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61">
         <v>73</v>
       </c>
@@ -5032,10 +5215,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E61">
         <v>108.2</v>
@@ -5094,19 +5277,22 @@
       <c r="W61">
         <v>1546.7</v>
       </c>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="X61">
+        <v>1605.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B62">
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E62">
         <v>103.9</v>
@@ -5165,19 +5351,22 @@
       <c r="W62">
         <v>1402.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="X62">
+        <v>1458.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B63">
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E63">
         <v>112.3</v>
@@ -5236,19 +5425,22 @@
       <c r="W63">
         <v>1415.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63">
+        <v>1472.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64">
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E64">
         <v>101.4</v>
@@ -5307,19 +5499,22 @@
       <c r="W64">
         <v>1432.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64">
+        <v>1485.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B65">
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D65" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E65">
         <v>109.5</v>
@@ -5378,8 +5573,11 @@
       <c r="W65">
         <v>1448.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="X65">
+        <v>1506.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66">
         <v>52</v>
       </c>
@@ -5387,10 +5585,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E66">
         <v>109.5</v>
@@ -5449,8 +5647,11 @@
       <c r="W66">
         <v>1463.9</v>
       </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66">
+        <v>1519.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67">
         <v>83</v>
       </c>
@@ -5458,10 +5659,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E67">
         <v>108.1</v>
@@ -5520,8 +5721,11 @@
       <c r="W67">
         <v>1642.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67">
+        <v>1700.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68">
         <v>78</v>
       </c>
@@ -5529,10 +5733,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D68" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E68">
         <v>107.9</v>
@@ -5591,8 +5795,11 @@
       <c r="W68">
         <v>1572.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="X68">
+        <v>1626.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69">
         <v>72</v>
       </c>
@@ -5600,10 +5807,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D69" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E69">
         <v>104.4</v>
@@ -5662,19 +5869,22 @@
       <c r="W69">
         <v>1528.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69">
+        <v>1582.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B70">
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D70" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E70">
         <v>120</v>
@@ -5733,19 +5943,22 @@
       <c r="W70">
         <v>1627.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="X70">
+        <v>1692.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B71">
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E71">
         <v>106.3</v>
@@ -5804,19 +6017,22 @@
       <c r="W71">
         <v>1484.4</v>
       </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71">
+        <v>1540.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B72">
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E72">
         <v>107</v>
@@ -5875,19 +6091,22 @@
       <c r="W72">
         <v>1443.8</v>
       </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="X72">
+        <v>1496.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B73">
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E73">
         <v>110.5</v>
@@ -5946,19 +6165,22 @@
       <c r="W73">
         <v>1463.1</v>
       </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73">
+        <v>1516.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B74">
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D74" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E74">
         <v>106.9</v>
@@ -6017,19 +6239,22 @@
       <c r="W74">
         <v>1487.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75">
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E75">
         <v>111.8</v>
@@ -6088,19 +6313,22 @@
       <c r="W75">
         <v>1518.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75">
+        <v>1576.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B76">
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D76" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E76">
         <v>111.8</v>
@@ -6159,19 +6387,22 @@
       <c r="W76">
         <v>1479.9</v>
       </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76">
+        <v>1534.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B77">
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D77" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E77">
         <v>115.8</v>
@@ -6230,19 +6461,22 @@
       <c r="W77">
         <v>1470.1</v>
       </c>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="X77">
+        <v>1522.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B78">
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D78" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E78">
         <v>102.9</v>
@@ -6301,19 +6535,22 @@
       <c r="W78">
         <v>1461.7</v>
       </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="X78">
+        <v>1518.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79">
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D79" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E79">
         <v>113.9</v>
@@ -6372,8 +6609,11 @@
       <c r="W79">
         <v>1627.9</v>
       </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="X79">
+        <v>1690.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6381,10 +6621,10 @@
         <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D80" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E80">
         <v>111.7</v>
@@ -6443,8 +6683,11 @@
       <c r="W80">
         <v>1577.8</v>
       </c>
-    </row>
-    <row r="81" spans="1:23">
+      <c r="X80">
+        <v>1632.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81">
         <v>76</v>
       </c>
@@ -6452,10 +6695,10 @@
         <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D81" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E81">
         <v>117.9</v>
@@ -6514,8 +6757,11 @@
       <c r="W81">
         <v>1562.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="X81">
+        <v>1621.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82">
         <v>69</v>
       </c>
@@ -6523,10 +6769,10 @@
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D82" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E82">
         <v>109.1</v>
@@ -6584,6 +6830,9 @@
       </c>
       <c r="W82">
         <v>1513.3</v>
+      </c>
+      <c r="X82">
+        <v>1571.5</v>
       </c>
     </row>
   </sheetData>
